--- a/line_plot/test_data/f1#0.05.xlsx
+++ b/line_plot/test_data/f1#0.05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,12 @@
       <c r="F1" s="1" t="n">
         <v>0.25</v>
       </c>
+      <c r="G1" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -462,19 +468,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4423720409102022</v>
+        <v>0.4004188398043626</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4626056484603573</v>
+        <v>0.4115160875109969</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4619250024901002</v>
+        <v>0.4340161530574273</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4791419524852461</v>
+        <v>0.4323843470153143</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4961279450061812</v>
+        <v>0.4426195803240026</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.363740601062926</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.3628913976742708</v>
       </c>
     </row>
     <row r="3">
@@ -484,19 +496,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4959479529045903</v>
+        <v>0.4519385860856466</v>
       </c>
       <c r="C3" t="n">
-        <v>0.533943243338167</v>
+        <v>0.4741382996764312</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5379290741436246</v>
+        <v>0.4802029887721336</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5484752002027957</v>
+        <v>0.4899837477521565</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5744736572212112</v>
+        <v>0.5249311586594305</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3819325929918942</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.3867454389621642</v>
       </c>
     </row>
     <row r="4">
@@ -506,19 +524,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4900651709052306</v>
+        <v>0.4515482900702457</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5245473294581979</v>
+        <v>0.4794423200458902</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5268992280293753</v>
+        <v>0.4756460325999708</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5425331178918953</v>
+        <v>0.495944079823846</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5346443695187296</v>
+        <v>0.5010872060781576</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.3806878568528979</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.3845997282404375</v>
       </c>
     </row>
   </sheetData>
